--- a/Personal/xueyu/plan/week9-2018-03-26.xlsx
+++ b/Personal/xueyu/plan/week9-2018-03-26.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88FBD6F-179F-4460-BAB5-D647F187FA3B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF0CDF6-CD1B-4B64-90B1-23547A3A8270}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>学完第九章，不要再拖了草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.等值线，等值面与梯度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -313,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -418,13 +422,148 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -436,131 +575,23 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -844,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -857,29 +888,30 @@
     <col min="3" max="3" width="48.625" customWidth="1"/>
     <col min="4" max="5" width="13.875" style="26" customWidth="1"/>
     <col min="6" max="6" width="14.375" style="26" customWidth="1"/>
-    <col min="7" max="7" width="42.25" style="26" customWidth="1"/>
-    <col min="8" max="8" width="30.125" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="42.25" style="26" customWidth="1"/>
+    <col min="9" max="9" width="30.125" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:10" ht="76.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="84"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -895,14 +927,15 @@
       <c r="G2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="49">
         <v>43185</v>
       </c>
@@ -918,15 +951,16 @@
         <v>15</v>
       </c>
       <c r="G3" s="16"/>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="52">
+      <c r="J3" s="85">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="82"/>
       <c r="B4" s="39" t="s">
         <v>11</v>
       </c>
@@ -941,11 +975,14 @@
       <c r="G4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="53"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
+      <c r="H4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="52"/>
+      <c r="J4" s="86"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="82"/>
       <c r="B5" s="32" t="s">
         <v>13</v>
       </c>
@@ -958,329 +995,359 @@
         <v>15</v>
       </c>
       <c r="G5" s="29"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="54"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="59"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="87"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="66"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="3"/>
       <c r="D6" s="17"/>
       <c r="E6" s="28"/>
       <c r="F6" s="18"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="56"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="65"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="3"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="18"/>
       <c r="G7" s="30"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="56"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="65"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="67"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="3"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="19"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="56"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
-      <c r="B9" s="61"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="65"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="67"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="3"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="56"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
-      <c r="B10" s="60"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="65"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="67"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="3"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="19"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="56"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
-      <c r="B11" s="62"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="65"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="67"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="3"/>
       <c r="D11" s="17"/>
       <c r="E11" s="28"/>
       <c r="F11" s="18"/>
       <c r="G11" s="30"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="56"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="65"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
       <c r="B12" s="27"/>
       <c r="C12" s="1"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="73"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="76"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="45"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="48"/>
       <c r="B13" s="33"/>
       <c r="C13" s="1"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="74"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="76"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="46"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="48"/>
       <c r="B14" s="27"/>
       <c r="C14" s="1"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="74"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="66"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="46"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="69"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="9"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="67"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="44"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="69"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="9"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="42"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="68"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="44"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="69"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="9"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="42"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
-      <c r="B18" s="66"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="44"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="69"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="9"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="42"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="67"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="44"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="70"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="6"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="42"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
-      <c r="B20" s="67"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="44"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="70"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="6"/>
       <c r="D20" s="31"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="42"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="68"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="44"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="70"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="6"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="42"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="44"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="70"/>
       <c r="B22" s="34"/>
       <c r="C22" s="6"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="42"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="96"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="44"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="49"/>
-      <c r="B23" s="72"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="7"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="36"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="79"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="77"/>
-      <c r="B24" s="72"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="50"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="7"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="23"/>
       <c r="G24" s="37"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="80"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="77"/>
-      <c r="B25" s="82"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="54"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="50"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="7"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="23"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="80"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="77"/>
-      <c r="B26" s="83"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="50"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="7"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="23"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="80"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="77"/>
-      <c r="B27" s="83"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="50"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="7"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="80"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="77"/>
-      <c r="B28" s="84"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="54"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="50"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="7"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="80"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="78"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="54"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="51"/>
       <c r="B29" s="35"/>
       <c r="C29" s="7"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="81"/>
-    </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="40"/>
-      <c r="B30" s="41"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="55"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="69"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="9"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="42"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
-      <c r="B31" s="41"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="44"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="69"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="9"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="42"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="44"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="70"/>
       <c r="B32" s="38"/>
       <c r="C32" s="9"/>
       <c r="D32" s="31"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="42"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="44"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="6"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="42"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="44"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="70"/>
+      <c r="B34" s="70"/>
       <c r="C34" s="6"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="42"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H34" s="96"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="44"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -1288,10 +1355,11 @@
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="10"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="10"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -1299,10 +1367,11 @@
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="10"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="10"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -1310,10 +1379,11 @@
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="10"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1321,10 +1391,11 @@
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="10"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="10"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1332,10 +1403,11 @@
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="10"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="10"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1343,10 +1415,11 @@
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="10"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="10"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1354,10 +1427,11 @@
       <c r="E41" s="25"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="10"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="10"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1365,10 +1439,11 @@
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="10"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="10"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1376,10 +1451,11 @@
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="10"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="10"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1387,10 +1463,11 @@
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="10"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="10"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1398,10 +1475,11 @@
       <c r="E45" s="25"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="10"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1409,10 +1487,11 @@
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="10"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="10"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1420,10 +1499,11 @@
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="10"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="10"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1431,40 +1511,41 @@
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="10"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="I15:I22"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="H23:H29"/>
-    <mergeCell ref="I23:I29"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="I6:I11"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J6:J11"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="H6:H11"/>
+    <mergeCell ref="I6:I11"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="H15:H22"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="I15:I22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="J15:J22"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="I23:I29"/>
+    <mergeCell ref="J23:J29"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="G25:G28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/week9-2018-03-26.xlsx
+++ b/Personal/xueyu/plan/week9-2018-03-26.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF0CDF6-CD1B-4B64-90B1-23547A3A8270}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3478C8-57D9-4351-AC2E-0139E0E94DD9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,26 @@
   </si>
   <si>
     <t>1.等值线，等值面与梯度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作的时候还是好好工作吧，努力从框架上去想问题，不要浪费时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -317,7 +337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -392,9 +412,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -431,10 +448,109 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -449,18 +565,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -468,15 +578,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -497,101 +598,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -875,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I12" sqref="I12:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -894,24 +902,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="76.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="84"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -936,10 +944,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="49">
+      <c r="A3" s="56">
         <v>43185</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -952,16 +960,16 @@
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="85">
+      <c r="J3" s="60">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="82"/>
-      <c r="B4" s="39" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -978,12 +986,12 @@
       <c r="H4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="86"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="82"/>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -996,356 +1004,372 @@
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="87"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="65">
+        <v>43186</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="17"/>
       <c r="E6" s="28"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="65"/>
+      <c r="G6" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="65"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="65"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="65"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="64"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="79"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="77"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="65"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="78"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="65"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="45"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="78"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="48"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="46"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="46"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="69"/>
-      <c r="B15" s="56"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="9"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="44"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="44"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="69"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="22"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="44"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="69"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="44"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="70"/>
-      <c r="B19" s="57"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="6"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="44"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="70"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="44"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="50"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="56"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="83"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="70"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="44"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="84"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="70"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="44"/>
-    </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-      <c r="B23" s="43"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="84"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="81"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="23"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="53"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="84"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="23"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="54"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="84"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="23"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="54"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="84"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="23"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="54"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="54"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="85"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="42"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="46"/>
       <c r="I28" s="52"/>
-      <c r="J28" s="54"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="46"/>
       <c r="I29" s="52"/>
-      <c r="J29" s="55"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="69"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="9"/>
+      <c r="J29" s="50"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="44"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="69"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="44"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="70"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="44"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="44"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="70"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="44"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
@@ -1479,73 +1503,35 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I30:I34"/>
+  <mergeCells count="27">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="J12:J19"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="I20:I26"/>
+    <mergeCell ref="J20:J26"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="G6:G8"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="J3:J5"/>
     <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J6:J11"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="I6:I11"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="I15:I22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="J15:J22"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="I23:I29"/>
-    <mergeCell ref="J23:J29"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="I27:I31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/week9-2018-03-26.xlsx
+++ b/Personal/xueyu/plan/week9-2018-03-26.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3478C8-57D9-4351-AC2E-0139E0E94DD9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,12 +120,41 @@
     <t>工作的时候还是好好工作吧，努力从框架上去想问题，不要浪费时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作和背单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天去看quora，现在觉得无聊就去看那个吧。
+顺便提高英文阅读能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好好工作，晚上要学数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,7 +365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -347,7 +375,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -403,9 +430,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -466,13 +490,133 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -484,121 +628,28 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -875,67 +926,67 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="48.625" customWidth="1"/>
-    <col min="4" max="5" width="13.875" style="26" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="26" customWidth="1"/>
-    <col min="7" max="8" width="42.25" style="26" customWidth="1"/>
+    <col min="4" max="5" width="13.875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="25" customWidth="1"/>
+    <col min="7" max="8" width="42.25" style="25" customWidth="1"/>
     <col min="9" max="9" width="30.125" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="76.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:10" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1">
+      <c r="A2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
@@ -943,568 +994,604 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="56">
+    <row r="3" spans="1:10">
+      <c r="A3" s="54">
         <v>43185</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="63" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="86">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="38" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="83"/>
+      <c r="B4" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="61"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="31" t="s">
+      <c r="I4" s="57"/>
+      <c r="J4" s="87"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="83"/>
+      <c r="B5" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="15" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="62"/>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65">
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="88"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A6" s="71">
         <v>43186</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="67" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="64"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="42" t="s">
+      <c r="H6" s="41"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="70"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="72"/>
+      <c r="B7" s="40" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="64"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
-      <c r="B8" s="42" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="70"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="72"/>
+      <c r="B8" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="64"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="79"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="77"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="80"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="78"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="80"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="78"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="50"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="50"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="50"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="50"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="50"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="50"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="50"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="50"/>
-    </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="83"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="81"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="84"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="81"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="84"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="81"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="84"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="81"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="84"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="81"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="84"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="82"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="85"/>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="50"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="50"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="50"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="50"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="50"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="70"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A9" s="52">
+        <v>43187</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="50"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="53"/>
+      <c r="B10" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="93"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="51"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="53"/>
+      <c r="B11" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="73"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="49"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="73"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="49"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="73"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="49"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="73"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="49"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="74"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="49"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="74"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="49"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="74"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="49"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="74"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="49"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A20" s="54"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="55"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="59"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="55"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="59"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="55"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="59"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="55"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="59"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="55"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="59"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="56"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="60"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A27" s="73"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="49"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="49"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="74"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="49"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="49"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="49"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="30">
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="I9:I11"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="J12:J19"/>
     <mergeCell ref="J9:J11"/>
@@ -1515,23 +1602,6 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="G22:G25"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="J27:J31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="I27:I31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/week9-2018-03-26.xlsx
+++ b/Personal/xueyu/plan/week9-2018-03-26.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9303FC3-BF24-45CB-B882-679D3191A18F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,12 +150,24 @@
     <t>好好工作，晚上要学数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lagrange multiplier 没完全看明白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,10 +509,115 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -514,18 +632,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,15 +645,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -561,96 +664,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -926,21 +939,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I19"/>
+      <selection activeCell="J12" sqref="J12:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -952,25 +965,25 @@
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:10" ht="76.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1">
-      <c r="A2" s="84" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="85"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -986,7 +999,9 @@
       <c r="G2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
@@ -994,8 +1009,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="54">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="56">
         <v>43185</v>
       </c>
       <c r="B3" s="36" t="s">
@@ -1011,15 +1026,15 @@
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="86">
+      <c r="J3" s="60">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="83"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="57"/>
       <c r="B4" s="36" t="s">
         <v>11</v>
       </c>
@@ -1037,11 +1052,11 @@
       <c r="H4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="87"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="83"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="57"/>
       <c r="B5" s="29" t="s">
         <v>13</v>
       </c>
@@ -1055,11 +1070,11 @@
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="88"/>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A6" s="71">
+      <c r="I5" s="63"/>
+      <c r="J5" s="62"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="65">
         <v>43186</v>
       </c>
       <c r="B6" s="47" t="s">
@@ -1071,15 +1086,15 @@
       <c r="D6" s="16"/>
       <c r="E6" s="26"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="75" t="s">
+      <c r="G6" s="67" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="41"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="70"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="72"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="64"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="66"/>
       <c r="B7" s="40" t="s">
         <v>20</v>
       </c>
@@ -1089,13 +1104,13 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="76"/>
+      <c r="G7" s="68"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="70"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="72"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="64"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="66"/>
       <c r="B8" s="40" t="s">
         <v>21</v>
       </c>
@@ -1105,49 +1120,55 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="80"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="70"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A9" s="52">
+      <c r="I8" s="68"/>
+      <c r="J8" s="64"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="87">
         <v>43187</v>
       </c>
       <c r="B9" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="76" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="96" t="s">
+      <c r="F9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="78" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="20"/>
-      <c r="I9" s="97" t="s">
+      <c r="I9" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="50"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="53"/>
+      <c r="J9" s="85">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="88"/>
       <c r="B10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="93"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="94"/>
+      <c r="F10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="79"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="51"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="53"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="86"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="88"/>
       <c r="B11" s="46" t="s">
         <v>27</v>
       </c>
@@ -1156,98 +1177,102 @@
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="51"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="73"/>
-      <c r="B12" s="61"/>
+      <c r="F11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="80"/>
+      <c r="H11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="83"/>
+      <c r="J11" s="86"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="48"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="8"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="43"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="49"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="73"/>
-      <c r="B13" s="62"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="48"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="8"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="44"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="49"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="73"/>
-      <c r="B14" s="63"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="50"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="48"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="8"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="44"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="49"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="73"/>
-      <c r="B15" s="61"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="50"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="48"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="8"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="44"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="49"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="74"/>
-      <c r="B16" s="62"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="50"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="49"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="5"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="44"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="49"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="74"/>
-      <c r="B17" s="62"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="50"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="5"/>
       <c r="D17" s="28"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="44"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="49"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="74"/>
-      <c r="B18" s="63"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="50"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="49"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="5"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="44"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="49"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="74"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="50"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="49"/>
       <c r="B19" s="31"/>
       <c r="C19" s="5"/>
       <c r="D19" s="21"/>
@@ -1255,83 +1280,83 @@
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="49"/>
-    </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A20" s="54"/>
-      <c r="B20" s="48"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="50"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="56"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="6"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="55"/>
-      <c r="B21" s="48"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="91"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="89"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="6"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="22"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="59"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="55"/>
-      <c r="B22" s="64"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="92"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="89"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="6"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="22"/>
-      <c r="G22" s="67"/>
+      <c r="G22" s="97"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="59"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="55"/>
-      <c r="B23" s="65"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="92"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="89"/>
+      <c r="B23" s="95"/>
       <c r="C23" s="6"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
       <c r="F23" s="22"/>
-      <c r="G23" s="68"/>
+      <c r="G23" s="98"/>
       <c r="H23" s="38"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="59"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="55"/>
-      <c r="B24" s="65"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="92"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="89"/>
+      <c r="B24" s="95"/>
       <c r="C24" s="6"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="68"/>
+      <c r="G24" s="98"/>
       <c r="H24" s="38"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="59"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="55"/>
-      <c r="B25" s="66"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="92"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="89"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="6"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
-      <c r="G25" s="69"/>
+      <c r="G25" s="99"/>
       <c r="H25" s="39"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="59"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="56"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="92"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="90"/>
       <c r="B26" s="32"/>
       <c r="C26" s="6"/>
       <c r="D26" s="22"/>
@@ -1339,35 +1364,35 @@
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="60"/>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A27" s="73"/>
-      <c r="B27" s="74"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="93"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="8"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="43"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="49"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="73"/>
-      <c r="B28" s="74"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="50"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="8"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="44"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="49"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="74"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="50"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="49"/>
       <c r="B29" s="35"/>
       <c r="C29" s="8"/>
       <c r="D29" s="28"/>
@@ -1375,34 +1400,34 @@
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="44"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="49"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="74"/>
-      <c r="B30" s="74"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="50"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="5"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="44"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="49"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="74"/>
-      <c r="B31" s="74"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="50"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="5"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="49"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="I31" s="53"/>
+      <c r="J31" s="50"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1414,7 +1439,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1426,7 +1451,7 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1438,7 +1463,7 @@
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1450,7 +1475,7 @@
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1462,7 +1487,7 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1474,7 +1499,7 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1486,7 +1511,7 @@
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1498,7 +1523,7 @@
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1510,7 +1535,7 @@
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1522,7 +1547,7 @@
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -1534,7 +1559,7 @@
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1546,7 +1571,7 @@
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -1558,7 +1583,7 @@
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1572,16 +1597,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="J27:J31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="J12:J19"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="I20:I26"/>
+    <mergeCell ref="J20:J26"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="G22:G25"/>
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A12:A19"/>
@@ -1592,16 +1617,16 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="I9:I11"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="J12:J19"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="I20:I26"/>
-    <mergeCell ref="J20:J26"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="I27:I31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/week9-2018-03-26.xlsx
+++ b/Personal/xueyu/plan/week9-2018-03-26.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9303FC3-BF24-45CB-B882-679D3191A18F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F9E18D-D5E4-477E-A838-6BD0273F3E0C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,7 +159,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lagrange multiplier 没完全看明白</t>
+    <t>Lagrange multiplier 没完全看明白
+刷个牙突然又明白了，等高线与约束条件相切时达到极值，准确地说时达到一个驻点，不一定是极值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,7 +379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -509,13 +510,151 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -527,143 +666,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -950,7 +954,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:J19"/>
+      <selection activeCell="H17" sqref="H17:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -966,24 +970,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="76.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="93"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1014,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="56">
+      <c r="A3" s="54">
         <v>43185</v>
       </c>
       <c r="B3" s="36" t="s">
@@ -1026,15 +1030,15 @@
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="94">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
+      <c r="A4" s="91"/>
       <c r="B4" s="36" t="s">
         <v>11</v>
       </c>
@@ -1052,11 +1056,11 @@
       <c r="H4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="61"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="29" t="s">
         <v>13</v>
       </c>
@@ -1070,11 +1074,11 @@
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="62"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="96"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65">
+      <c r="A6" s="71">
         <v>43186</v>
       </c>
       <c r="B6" s="47" t="s">
@@ -1086,15 +1090,15 @@
       <c r="D6" s="16"/>
       <c r="E6" s="26"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="75" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="41"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="64"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="70"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="40" t="s">
         <v>20</v>
       </c>
@@ -1104,13 +1108,13 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="68"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="64"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="40" t="s">
         <v>21</v>
       </c>
@@ -1120,19 +1124,19 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="75"/>
+      <c r="G8" s="80"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="64"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="70"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="87">
+      <c r="A9" s="52">
         <v>43187</v>
       </c>
       <c r="B9" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="81" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="19"/>
@@ -1140,35 +1144,35 @@
       <c r="F9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="78" t="s">
+      <c r="G9" s="83" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="20"/>
-      <c r="I9" s="81" t="s">
+      <c r="I9" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="85">
+      <c r="J9" s="50">
         <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="88"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="79"/>
+      <c r="G10" s="84"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="86"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="88"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="51"/>
+    </row>
+    <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="53"/>
       <c r="B11" s="46" t="s">
         <v>27</v>
       </c>
@@ -1180,99 +1184,99 @@
       <c r="F11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="80"/>
-      <c r="H11" s="20" t="s">
+      <c r="G11" s="85"/>
+      <c r="H11" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="83"/>
-      <c r="J11" s="86"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="69"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="8"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="43"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="50"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="8"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="44"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="50"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
-      <c r="B14" s="71"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="8"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="44"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="50"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="69"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="8"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="44"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="50"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="70"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="5"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="44"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="50"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="70"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="5"/>
       <c r="D17" s="28"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="44"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="50"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="49"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="71"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="5"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="44"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="50"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="31"/>
       <c r="C19" s="5"/>
       <c r="D19" s="21"/>
@@ -1280,83 +1284,83 @@
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="50"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="49"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
-      <c r="B20" s="84"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="6"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="91"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="89"/>
-      <c r="B21" s="84"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="6"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="22"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="92"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="59"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="89"/>
-      <c r="B22" s="94"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="6"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="22"/>
-      <c r="G22" s="97"/>
+      <c r="G22" s="67"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="92"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="59"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="89"/>
-      <c r="B23" s="95"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="6"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
       <c r="F23" s="22"/>
-      <c r="G23" s="98"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="38"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="92"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="89"/>
-      <c r="B24" s="95"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="6"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="98"/>
+      <c r="G24" s="68"/>
       <c r="H24" s="38"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="92"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="59"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="89"/>
-      <c r="B25" s="96"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="6"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
-      <c r="G25" s="99"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="39"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="92"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="59"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="90"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="32"/>
       <c r="C26" s="6"/>
       <c r="D26" s="22"/>
@@ -1364,35 +1368,35 @@
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="93"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="8"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="43"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="50"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="8"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="44"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="50"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="49"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="35"/>
       <c r="C29" s="8"/>
       <c r="D29" s="28"/>
@@ -1400,32 +1404,32 @@
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="44"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="50"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="49"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="5"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="44"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="50"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="49"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
       <c r="C31" s="5"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="50"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="49"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
@@ -1597,6 +1601,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="I9:I11"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="J12:J19"/>
     <mergeCell ref="J9:J11"/>
@@ -1607,26 +1631,6 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="G22:G25"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="J27:J31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="I27:I31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/week9-2018-03-26.xlsx
+++ b/Personal/xueyu/plan/week9-2018-03-26.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F9E18D-D5E4-477E-A838-6BD0273F3E0C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CC38FA-3C9D-4B76-8E6A-E5CB18DC34F6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,58 @@
   <si>
     <t>Lagrange multiplier 没完全看明白
 刷个牙突然又明白了，等高线与约束条件相切时达到极值，准确地说时达到一个驻点，不一定是极值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背完单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>before 14:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供聚合口的ko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑通已有的代码的配置下发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>争取把mac acl也跑通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学学完第十章的第一节和第二节的第一小节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看梯度的视频（MIT）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作学习两不误，好久没打卡了，今天争取打卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -459,9 +511,6 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,10 +559,109 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -528,18 +676,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -547,15 +689,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -576,98 +709,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -951,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:H18"/>
+      <selection activeCell="G21" sqref="G21:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -970,24 +1028,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="76.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="93"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1014,10 +1072,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="54">
+      <c r="A3" s="56">
         <v>43185</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1030,16 +1088,16 @@
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="94">
+      <c r="J3" s="60">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="91"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1056,11 +1114,11 @@
       <c r="H4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="95"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="91"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="29" t="s">
         <v>13</v>
       </c>
@@ -1074,14 +1132,14 @@
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="96"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71">
+      <c r="A6" s="65">
         <v>43186</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1090,16 +1148,16 @@
       <c r="D6" s="16"/>
       <c r="E6" s="26"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="75" t="s">
+      <c r="G6" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="70"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="72"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="39" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1108,14 +1166,14 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="70"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="39" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1124,19 +1182,19 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="70"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52">
+      <c r="A9" s="84">
         <v>43187</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="73" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="19"/>
@@ -1144,36 +1202,36 @@
       <c r="F9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="83" t="s">
+      <c r="G9" s="75" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="20"/>
-      <c r="I9" s="86" t="s">
+      <c r="I9" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="82">
         <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="82"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="84"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="51"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="83"/>
     </row>
     <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="45" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1184,252 +1242,282 @@
       <c r="F11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="85"/>
-      <c r="H11" s="100" t="s">
+      <c r="G11" s="77"/>
+      <c r="H11" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="51"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="83"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="97">
+        <v>43188</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="F12" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="G12" s="21"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="49"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="100"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="F13" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="G13" s="21"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="49"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="101"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="49"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="101"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="73"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="49"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="101"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="74"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="28"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="49"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="101"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="74"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="28"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="44"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="49"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="101"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="74"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="49"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="74"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="49"/>
-    </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="48"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="102"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="56"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="88"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="86"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="22"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="89"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="55"/>
-      <c r="B21" s="48"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="6"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="22"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="59"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="89"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="55"/>
-      <c r="B22" s="64"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="6"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="22"/>
-      <c r="G22" s="67"/>
+      <c r="G22" s="95"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="59"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="89"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
-      <c r="B23" s="65"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="22"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="59"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="89"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
-      <c r="B24" s="65"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="93"/>
       <c r="C24" s="6"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="68"/>
+      <c r="G24" s="96"/>
       <c r="H24" s="38"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="59"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="89"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
-      <c r="B25" s="66"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="6"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="59"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="60"/>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="73"/>
-      <c r="B27" s="74"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="90"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="50"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="8"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="43"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="49"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="73"/>
-      <c r="B28" s="74"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="21"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="49"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="74"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="28"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="49"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="74"/>
-      <c r="B30" s="74"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="5"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="44"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="49"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="74"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="49"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
@@ -1587,50 +1675,39 @@
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="J27:J31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="I27:I31"/>
+  <mergeCells count="31">
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="I19:I25"/>
+    <mergeCell ref="J19:J25"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="I12:I18"/>
+    <mergeCell ref="J12:J18"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="I9:I11"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="J3:J5"/>
     <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="J12:J19"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="I20:I26"/>
-    <mergeCell ref="J20:J26"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="J26:J30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="I26:I30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/week9-2018-03-26.xlsx
+++ b/Personal/xueyu/plan/week9-2018-03-26.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CC38FA-3C9D-4B76-8E6A-E5CB18DC34F6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,12 +214,69 @@
     <t>工作学习两不误，好久没打卡了，今天争取打卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于加班，只看了第一节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成vfp的配置下发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成mac acl的配置下发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习完数学第二节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最重要是完成这个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成聚合口的配置下发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背背单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成剩余的配置下发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本调通所有的配置下发
+学习完数学的一节内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -532,9 +588,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -562,6 +615,156 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -569,162 +772,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1001,21 +1048,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:G24"/>
+      <selection activeCell="I25" sqref="I25:I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -1027,25 +1074,25 @@
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="76.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:10" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1">
+      <c r="A2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="93"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1071,8 +1118,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="56">
+    <row r="3" spans="1:10">
+      <c r="A3" s="52">
         <v>43185</v>
       </c>
       <c r="B3" s="35" t="s">
@@ -1088,15 +1135,15 @@
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="94">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
+    <row r="4" spans="1:10">
+      <c r="A4" s="91"/>
       <c r="B4" s="35" t="s">
         <v>11</v>
       </c>
@@ -1114,11 +1161,11 @@
       <c r="H4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="61"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="95"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="91"/>
       <c r="B5" s="29" t="s">
         <v>13</v>
       </c>
@@ -1132,14 +1179,14 @@
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="62"/>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65">
+      <c r="I5" s="55"/>
+      <c r="J5" s="96"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A6" s="75">
         <v>43186</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1148,16 +1195,16 @@
       <c r="D6" s="16"/>
       <c r="E6" s="26"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="64"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="39" t="s">
+      <c r="H6" s="39"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="74"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="76"/>
+      <c r="B7" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1166,14 +1213,14 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="64"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
-      <c r="B8" s="39" t="s">
+      <c r="G7" s="78"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="74"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="76"/>
+      <c r="B8" s="38" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1182,19 +1229,19 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="64"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="84">
+      <c r="G8" s="80"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="74"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A9" s="50">
         <v>43187</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="81" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="19"/>
@@ -1202,36 +1249,36 @@
       <c r="F9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="G9" s="83" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="20"/>
-      <c r="I9" s="78" t="s">
+      <c r="I9" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="82">
+      <c r="J9" s="48">
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="85"/>
+    <row r="10" spans="1:10">
+      <c r="A10" s="51"/>
       <c r="B10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="76"/>
+      <c r="G10" s="84"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="83"/>
-    </row>
-    <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="85"/>
-      <c r="B11" s="45" t="s">
+      <c r="I10" s="87"/>
+      <c r="J10" s="49"/>
+    </row>
+    <row r="11" spans="1:10" ht="42.75">
+      <c r="A11" s="51"/>
+      <c r="B11" s="44" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1242,18 +1289,18 @@
       <c r="F11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="47" t="s">
+      <c r="G11" s="85"/>
+      <c r="H11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="80"/>
-      <c r="J11" s="83"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="97">
+      <c r="I11" s="88"/>
+      <c r="J11" s="49"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="65">
         <v>43188</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="59" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1265,15 +1312,17 @@
         <v>37</v>
       </c>
       <c r="G12" s="21"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="51" t="s">
+      <c r="H12" s="41"/>
+      <c r="I12" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="100"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="98"/>
-      <c r="B13" s="71"/>
+      <c r="J12" s="71">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="66"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="8" t="s">
         <v>36</v>
       </c>
@@ -1283,13 +1332,13 @@
         <v>37</v>
       </c>
       <c r="G13" s="21"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="101"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="98"/>
-      <c r="B14" s="69" t="s">
+      <c r="H13" s="42"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="72"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="66"/>
+      <c r="B14" s="59" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1299,43 +1348,49 @@
         <v>39</v>
       </c>
       <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="G14" s="21"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="101"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="98"/>
-      <c r="B15" s="70"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="72"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="66"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="21"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="101"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
-      <c r="B16" s="70"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="72"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="66"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="F16" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="G16" s="21"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="101"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="98"/>
-      <c r="B17" s="69" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="72"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="66"/>
+      <c r="B17" s="59" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1343,171 +1398,201 @@
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="101"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="99"/>
-      <c r="B18" s="71"/>
+      <c r="F17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="72"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="67"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="102"/>
-    </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="6"/>
+      <c r="F18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="73"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A19" s="52">
+        <v>43189</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="88"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="86"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="6"/>
+      <c r="I19" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="56"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="53"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="F20" s="22"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="89"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="86"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="6"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="57"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="53"/>
+      <c r="B21" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="22"/>
-      <c r="G21" s="94"/>
+      <c r="G21" s="63"/>
       <c r="H21" s="36"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="89"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="86"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="6"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="57"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="53"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="22"/>
-      <c r="G22" s="95"/>
+      <c r="G22" s="64"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="89"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="86"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="6"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="57"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="53"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
-      <c r="G23" s="95"/>
+      <c r="G23" s="64"/>
       <c r="H23" s="37"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="89"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="86"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="6"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="57"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="54"/>
+      <c r="B24" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="89"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="87"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="90"/>
-    </row>
-    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="55"/>
+      <c r="J24" s="58"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A25" s="97"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="99"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="97"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="8"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="50"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="99"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="98"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="21"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="50"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="28"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="99"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="98"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="50"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="99"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="5"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="43"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="50"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="50"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I29" s="70"/>
+      <c r="J29" s="99"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1519,7 +1604,7 @@
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1531,7 +1616,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1543,7 +1628,7 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1555,7 +1640,7 @@
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1567,7 +1652,7 @@
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1579,7 +1664,7 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1591,7 +1676,7 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1603,7 +1688,7 @@
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1615,7 +1700,7 @@
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1627,7 +1712,7 @@
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1639,7 +1724,7 @@
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -1651,7 +1736,7 @@
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1663,33 +1748,18 @@
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="I19:I25"/>
-    <mergeCell ref="J19:J25"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="I12:I18"/>
-    <mergeCell ref="J12:J18"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="J25:J29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="I3:I5"/>
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="I6:I8"/>
@@ -1698,16 +1768,19 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="I9:I11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="J26:J30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="I19:I24"/>
+    <mergeCell ref="J19:J24"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="I12:I18"/>
+    <mergeCell ref="J12:J18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/week9-2018-03-26.xlsx
+++ b/Personal/xueyu/plan/week9-2018-03-26.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9F5BA6-6EF6-463A-8254-CD049D103A47}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,12 +272,32 @@
 学习完数学的一节内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都是坑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛德想多了，第二节好几把多，只看了不到一半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1048,21 +1069,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:I29"/>
+      <selection activeCell="J19" sqref="J19:J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -1074,7 +1095,7 @@
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:10" ht="76.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
         <v>8</v>
       </c>
@@ -1088,7 +1109,7 @@
       <c r="I1" s="90"/>
       <c r="J1" s="90"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1">
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
         <v>3</v>
       </c>
@@ -1118,7 +1139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="52">
         <v>43185</v>
       </c>
@@ -1142,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="91"/>
       <c r="B4" s="35" t="s">
         <v>11</v>
@@ -1164,7 +1185,7 @@
       <c r="I4" s="55"/>
       <c r="J4" s="95"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="91"/>
       <c r="B5" s="29" t="s">
         <v>13</v>
@@ -1182,7 +1203,7 @@
       <c r="I5" s="55"/>
       <c r="J5" s="96"/>
     </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1">
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="75">
         <v>43186</v>
       </c>
@@ -1202,7 +1223,7 @@
       <c r="I6" s="77"/>
       <c r="J6" s="74"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="76"/>
       <c r="B7" s="38" t="s">
         <v>20</v>
@@ -1218,7 +1239,7 @@
       <c r="I7" s="78"/>
       <c r="J7" s="74"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="76"/>
       <c r="B8" s="38" t="s">
         <v>21</v>
@@ -1234,7 +1255,7 @@
       <c r="I8" s="78"/>
       <c r="J8" s="74"/>
     </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1">
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="50">
         <v>43187</v>
       </c>
@@ -1260,7 +1281,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="51"/>
       <c r="B10" s="30" t="s">
         <v>25</v>
@@ -1276,7 +1297,7 @@
       <c r="I10" s="87"/>
       <c r="J10" s="49"/>
     </row>
-    <row r="11" spans="1:10" ht="42.75">
+    <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="51"/>
       <c r="B11" s="44" t="s">
         <v>27</v>
@@ -1296,7 +1317,7 @@
       <c r="I11" s="88"/>
       <c r="J11" s="49"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="65">
         <v>43188</v>
       </c>
@@ -1320,7 +1341,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="66"/>
       <c r="B13" s="60"/>
       <c r="C13" s="8" t="s">
@@ -1336,7 +1357,7 @@
       <c r="I13" s="69"/>
       <c r="J13" s="72"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="66"/>
       <c r="B14" s="59" t="s">
         <v>38</v>
@@ -1356,7 +1377,7 @@
       <c r="I14" s="69"/>
       <c r="J14" s="72"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="66"/>
       <c r="B15" s="79"/>
       <c r="C15" s="5" t="s">
@@ -1372,7 +1393,7 @@
       <c r="I15" s="69"/>
       <c r="J15" s="72"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="66"/>
       <c r="B16" s="79"/>
       <c r="C16" s="5" t="s">
@@ -1388,7 +1409,7 @@
       <c r="I16" s="69"/>
       <c r="J16" s="72"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="66"/>
       <c r="B17" s="59" t="s">
         <v>43</v>
@@ -1408,7 +1429,7 @@
       <c r="I17" s="69"/>
       <c r="J17" s="72"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="67"/>
       <c r="B18" s="60"/>
       <c r="C18" s="5" t="s">
@@ -1424,7 +1445,7 @@
       <c r="I18" s="70"/>
       <c r="J18" s="73"/>
     </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1">
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52">
         <v>43189</v>
       </c>
@@ -1436,15 +1457,19 @@
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
       <c r="I19" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="56"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="J19" s="56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="53"/>
       <c r="B20" s="47"/>
       <c r="C20" s="6" t="s">
@@ -1452,13 +1477,15 @@
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="22"/>
+      <c r="F20" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="55"/>
       <c r="J20" s="57"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="53"/>
       <c r="B21" s="61" t="s">
         <v>51</v>
@@ -1468,13 +1495,17 @@
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="63"/>
+      <c r="F21" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="63" t="s">
+        <v>63</v>
+      </c>
       <c r="H21" s="36"/>
       <c r="I21" s="55"/>
       <c r="J21" s="57"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
       <c r="B22" s="62"/>
       <c r="C22" s="6" t="s">
@@ -1482,13 +1513,15 @@
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="G22" s="64"/>
       <c r="H22" s="37"/>
       <c r="I22" s="55"/>
       <c r="J22" s="57"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="53"/>
       <c r="B23" s="62"/>
       <c r="C23" s="6" t="s">
@@ -1496,13 +1529,15 @@
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="22" t="s">
+        <v>62</v>
+      </c>
       <c r="G23" s="64"/>
       <c r="H23" s="37"/>
       <c r="I23" s="55"/>
       <c r="J23" s="57"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="54"/>
       <c r="B24" s="31" t="s">
         <v>54</v>
@@ -1512,15 +1547,19 @@
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>65</v>
+      </c>
       <c r="H24" s="22" t="s">
         <v>56</v>
       </c>
       <c r="I24" s="55"/>
       <c r="J24" s="58"/>
     </row>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1">
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="97"/>
       <c r="B25" s="98"/>
       <c r="C25" s="8"/>
@@ -1532,7 +1571,7 @@
       <c r="I25" s="68"/>
       <c r="J25" s="99"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="97"/>
       <c r="B26" s="98"/>
       <c r="C26" s="8"/>
@@ -1544,7 +1583,7 @@
       <c r="I26" s="69"/>
       <c r="J26" s="99"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="98"/>
       <c r="B27" s="34"/>
       <c r="C27" s="8"/>
@@ -1556,7 +1595,7 @@
       <c r="I27" s="69"/>
       <c r="J27" s="99"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="98"/>
       <c r="B28" s="98"/>
       <c r="C28" s="5"/>
@@ -1568,7 +1607,7 @@
       <c r="I28" s="69"/>
       <c r="J28" s="99"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="98"/>
       <c r="B29" s="98"/>
       <c r="C29" s="5"/>
@@ -1580,7 +1619,7 @@
       <c r="I29" s="70"/>
       <c r="J29" s="99"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1592,7 +1631,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1604,7 +1643,7 @@
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1616,7 +1655,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1628,7 +1667,7 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1640,7 +1679,7 @@
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1652,7 +1691,7 @@
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1664,7 +1703,7 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1676,7 +1715,7 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1688,7 +1727,7 @@
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1700,7 +1739,7 @@
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1712,7 +1751,7 @@
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1724,7 +1763,7 @@
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -1736,7 +1775,7 @@
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
